--- a/artfynd/A 57197-2020.xlsx
+++ b/artfynd/A 57197-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111402340</v>
+        <v>111402337</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>96370</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,36 +692,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>219847</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Tjäreberget, Jmt</t>
@@ -804,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111402343</v>
+        <v>111402342</v>
       </c>
       <c r="B3" t="n">
-        <v>77186</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -920,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111402342</v>
+        <v>111402344</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1036,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111402344</v>
+        <v>111402343</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>77186</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1268,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111402337</v>
+        <v>111402340</v>
       </c>
       <c r="B7" t="n">
-        <v>96370</v>
+        <v>56414</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,28 +1272,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219847</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Tjäreberget, Jmt</t>

--- a/artfynd/A 57197-2020.xlsx
+++ b/artfynd/A 57197-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111402337</v>
+        <v>111402342</v>
       </c>
       <c r="B2" t="n">
-        <v>96370</v>
+        <v>77267</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219847</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>545198.1129081531</v>
+        <v>545197.7500373307</v>
       </c>
       <c r="R2" t="n">
-        <v>7020057.514641967</v>
+        <v>7020179.372318991</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111402342</v>
+        <v>111402340</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>56414</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,34 +812,42 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Tjäreberget, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>545197.7500373307</v>
+        <v>545198.1129081531</v>
       </c>
       <c r="R3" t="n">
-        <v>7020179.372318991</v>
+        <v>7020057.514641967</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111402344</v>
+        <v>111402343</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>77186</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +932,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1028,10 +1036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111402343</v>
+        <v>111402339</v>
       </c>
       <c r="B5" t="n">
-        <v>77186</v>
+        <v>77267</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1052,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1076,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>545197.7500373307</v>
+        <v>545198.1129081531</v>
       </c>
       <c r="R5" t="n">
-        <v>7020179.372318991</v>
+        <v>7020057.514641967</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1152,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111402339</v>
+        <v>111402344</v>
       </c>
       <c r="B6" t="n">
-        <v>77267</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1164,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>545198.1129081531</v>
+        <v>545197.7500373307</v>
       </c>
       <c r="R6" t="n">
-        <v>7020057.514641967</v>
+        <v>7020179.372318991</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,10 +1268,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111402340</v>
+        <v>111402337</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>96370</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,36 +1280,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>219847</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Tjäreberget, Jmt</t>

--- a/artfynd/A 57197-2020.xlsx
+++ b/artfynd/A 57197-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111402342</v>
+        <v>111402340</v>
       </c>
       <c r="B2" t="n">
-        <v>77267</v>
+        <v>56414</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Tjäreberget, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>545197.7500373307</v>
+        <v>545198.1129081531</v>
       </c>
       <c r="R2" t="n">
-        <v>7020179.372318991</v>
+        <v>7020057.514641967</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111402340</v>
+        <v>111402343</v>
       </c>
       <c r="B3" t="n">
-        <v>56414</v>
+        <v>77186</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,42 +820,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>353</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Tjäreberget, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>545198.1129081531</v>
+        <v>545197.7500373307</v>
       </c>
       <c r="R3" t="n">
-        <v>7020057.514641967</v>
+        <v>7020179.372318991</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111402343</v>
+        <v>111402342</v>
       </c>
       <c r="B4" t="n">
-        <v>77186</v>
+        <v>77267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,21 +936,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>

--- a/artfynd/A 57197-2020.xlsx
+++ b/artfynd/A 57197-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111402340</v>
+        <v>111402344</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,46 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Tjäreberget, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>545198.1129081531</v>
+        <v>545197.7500373307</v>
       </c>
       <c r="R2" t="n">
-        <v>7020057.514641967</v>
+        <v>7020179.372318991</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -804,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111402343</v>
+        <v>111402339</v>
       </c>
       <c r="B3" t="n">
-        <v>77186</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -844,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>545197.7500373307</v>
+        <v>545198.1129081531</v>
       </c>
       <c r="R3" t="n">
-        <v>7020179.372318991</v>
+        <v>7020057.514641967</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1036,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111402339</v>
+        <v>111402340</v>
       </c>
       <c r="B5" t="n">
-        <v>77267</v>
+        <v>56414</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1052,24 +1044,32 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Tjäreberget, Jmt</t>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111402344</v>
+        <v>111402337</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>96370</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1168,21 +1168,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>219847</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>545197.7500373307</v>
+        <v>545198.1129081531</v>
       </c>
       <c r="R6" t="n">
-        <v>7020179.372318991</v>
+        <v>7020057.514641967</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111402337</v>
+        <v>111402343</v>
       </c>
       <c r="B7" t="n">
-        <v>96370</v>
+        <v>77186</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,25 +1280,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219847</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>545198.1129081531</v>
+        <v>545197.7500373307</v>
       </c>
       <c r="R7" t="n">
-        <v>7020057.514641967</v>
+        <v>7020179.372318991</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 57197-2020.xlsx
+++ b/artfynd/A 57197-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111402344</v>
+        <v>111402339</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>77267</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>545197.7500373307</v>
+        <v>545198.1129081531</v>
       </c>
       <c r="R2" t="n">
-        <v>7020179.372318991</v>
+        <v>7020057.514641967</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111402339</v>
+        <v>111402344</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>545198.1129081531</v>
+        <v>545197.7500373307</v>
       </c>
       <c r="R3" t="n">
-        <v>7020057.514641967</v>
+        <v>7020179.372318991</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
